--- a/SIM Card Details/Airtel/Support SIMS/SIM_INVENTORY2021-06-26T11_08_02+05_30.xlsx
+++ b/SIM Card Details/Airtel/Support SIMS/SIM_INVENTORY2021-06-26T11_08_02+05_30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\SIM Card Details\Airtel\Support SIMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\CrazyCoder\SIM Card Details\Airtel\Support SIMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Sim" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="L2 Activation List" sheetId="6" r:id="rId5"/>
     <sheet name="L3 Activation List" sheetId="7" r:id="rId6"/>
     <sheet name="L4 Activation List" sheetId="8" r:id="rId7"/>
+    <sheet name="L5 Activation List" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory Sim'!$A$1:$K$270</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="855">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -2505,13 +2506,103 @@
   </si>
   <si>
     <t>Sample NO</t>
+  </si>
+  <si>
+    <t>5754000558762</t>
+  </si>
+  <si>
+    <t>8991000905770767822</t>
+  </si>
+  <si>
+    <t>404490624645598</t>
+  </si>
+  <si>
+    <t>5754000558758</t>
+  </si>
+  <si>
+    <t>8991000905770767780</t>
+  </si>
+  <si>
+    <t>404490624647458</t>
+  </si>
+  <si>
+    <t>5754000558756</t>
+  </si>
+  <si>
+    <t>8991000905770767764</t>
+  </si>
+  <si>
+    <t>404490624647457</t>
+  </si>
+  <si>
+    <t>5754000558764</t>
+  </si>
+  <si>
+    <t>8991000905770767848</t>
+  </si>
+  <si>
+    <t>404490624645614</t>
+  </si>
+  <si>
+    <t>5754000558759</t>
+  </si>
+  <si>
+    <t>8991000905770767798</t>
+  </si>
+  <si>
+    <t>404490624645627</t>
+  </si>
+  <si>
+    <t>5754000558760</t>
+  </si>
+  <si>
+    <t>8991000905770767806</t>
+  </si>
+  <si>
+    <t>404490624645603</t>
+  </si>
+  <si>
+    <t>5754000558757</t>
+  </si>
+  <si>
+    <t>8991000905770767772</t>
+  </si>
+  <si>
+    <t>404490624645631</t>
+  </si>
+  <si>
+    <t>5754000558763</t>
+  </si>
+  <si>
+    <t>8991000905770767830</t>
+  </si>
+  <si>
+    <t>404490624645606</t>
+  </si>
+  <si>
+    <t>5754000558761</t>
+  </si>
+  <si>
+    <t>8991000905770767814</t>
+  </si>
+  <si>
+    <t>404490624647460</t>
+  </si>
+  <si>
+    <t>5754000558755</t>
+  </si>
+  <si>
+    <t>8991000905770767756</t>
+  </si>
+  <si>
+    <t>404490624645618</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2530,6 +2621,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2619,7 +2715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2642,19 +2738,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2941,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15643,7 +15734,7 @@
   </sheetData>
   <autoFilter ref="A1:K91">
     <filterColumn colId="1">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17861,7 +17952,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18700,4 +18791,335 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>